--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>110012</t>
-  </si>
-  <si>
-    <t>011649</t>
-  </si>
-  <si>
-    <t>011650</t>
-  </si>
-  <si>
-    <t>易方达科汇灵活配置混合</t>
-  </si>
-  <si>
-    <t>易方达逆向投资混合A</t>
-  </si>
-  <si>
-    <t>易方达逆向投资混合C</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>6.31</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>70.02</t>
-  </si>
-  <si>
-    <t>34.38</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>0.1129</t>
-  </si>
-  <si>
-    <t>0.1054</t>
-  </si>
-  <si>
-    <t>0.0327</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.64</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,803 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.56</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.64</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1976,13 +2041,857 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.93</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.56</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.64</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,1937 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7742</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>17.52</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>6.93</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>9.56</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>1.64</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -566,6 +583,4460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2559,7 +7030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3451,7 +7922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4267,7 +8738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4741,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688639-华恒生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>26.67</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>17.52</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>6.93</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>9.56</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -583,6 +600,4086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9740</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5036,7 +9133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7030,7 +11127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7922,7 +12019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8738,7 +12835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9212,7 +13309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
